--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H2">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I2">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J2">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>293.8779520605412</v>
+        <v>379.2356259115555</v>
       </c>
       <c r="R2">
-        <v>293.8779520605412</v>
+        <v>3413.120633204</v>
       </c>
       <c r="S2">
-        <v>0.2280371348399849</v>
+        <v>0.2408549764789398</v>
       </c>
       <c r="T2">
-        <v>0.2280371348399849</v>
+        <v>0.2408549764789398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H3">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I3">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J3">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>157.7534072535745</v>
+        <v>158.0184601258667</v>
       </c>
       <c r="R3">
-        <v>157.7534072535745</v>
+        <v>1422.1661411328</v>
       </c>
       <c r="S3">
-        <v>0.1224101187214601</v>
+        <v>0.1003585367418251</v>
       </c>
       <c r="T3">
-        <v>0.1224101187214601</v>
+        <v>0.1003585367418252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H4">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I4">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J4">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>12.78205339813162</v>
+        <v>13.15434023937778</v>
       </c>
       <c r="R4">
-        <v>12.78205339813162</v>
+        <v>118.3890621544</v>
       </c>
       <c r="S4">
-        <v>0.009918344720468035</v>
+        <v>0.008354405790162254</v>
       </c>
       <c r="T4">
-        <v>0.009918344720468035</v>
+        <v>0.008354405790162254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H5">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I5">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J5">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>12.65188227958347</v>
+        <v>12.3271775568</v>
       </c>
       <c r="R5">
-        <v>12.65188227958347</v>
+        <v>110.9445980112</v>
       </c>
       <c r="S5">
-        <v>0.009817337316868999</v>
+        <v>0.007829069469299323</v>
       </c>
       <c r="T5">
-        <v>0.009817337316868999</v>
+        <v>0.007829069469299323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.0955415933562</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H6">
-        <v>3.0955415933562</v>
+        <v>172.1144</v>
       </c>
       <c r="I6">
-        <v>0.02000481711832161</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J6">
-        <v>0.02000481711832161</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>15.88126874775736</v>
+        <v>15.24254688311111</v>
       </c>
       <c r="R6">
-        <v>15.88126874775736</v>
+        <v>137.182921948</v>
       </c>
       <c r="S6">
-        <v>0.01232320763592473</v>
+        <v>0.009680639212590913</v>
       </c>
       <c r="T6">
-        <v>0.01232320763592473</v>
+        <v>0.009680639212590915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H7">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I7">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J7">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>8.525050072324976</v>
+        <v>23.939441682535</v>
       </c>
       <c r="R7">
-        <v>8.525050072324976</v>
+        <v>215.454975142815</v>
       </c>
       <c r="S7">
-        <v>0.006615086226202869</v>
+        <v>0.01520409283675959</v>
       </c>
       <c r="T7">
-        <v>0.006615086226202869</v>
+        <v>0.01520409283675959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H8">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I8">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J8">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>0.6907466985549664</v>
+        <v>9.974995629312</v>
       </c>
       <c r="R8">
-        <v>0.6907466985549664</v>
+        <v>89.774960663808</v>
       </c>
       <c r="S8">
-        <v>0.0005359908660524615</v>
+        <v>0.00633518365238128</v>
       </c>
       <c r="T8">
-        <v>0.0005359908660524615</v>
+        <v>0.006335183652381281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H9">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I9">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J9">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>0.6837122051458332</v>
+        <v>0.8303744150510001</v>
       </c>
       <c r="R9">
-        <v>0.6837122051458332</v>
+        <v>7.473369735459</v>
       </c>
       <c r="S9">
-        <v>0.0005305323901415533</v>
+        <v>0.0005273761127401716</v>
       </c>
       <c r="T9">
-        <v>0.0005305323901415533</v>
+        <v>0.0005273761127401716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.8704407904301</v>
+        <v>3.621603</v>
       </c>
       <c r="H10">
-        <v>51.8704407904301</v>
+        <v>10.864809</v>
       </c>
       <c r="I10">
-        <v>0.3352107056439999</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J10">
-        <v>0.3352107056439999</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>266.1144699284505</v>
+        <v>0.7781593501980001</v>
       </c>
       <c r="R10">
-        <v>266.1144699284505</v>
+        <v>7.003434151782001</v>
       </c>
       <c r="S10">
-        <v>0.2064938211133436</v>
+        <v>0.0004942139904137511</v>
       </c>
       <c r="T10">
-        <v>0.2064938211133436</v>
+        <v>0.0004942139904137511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.8704407904301</v>
+        <v>3.621603</v>
       </c>
       <c r="H11">
-        <v>51.8704407904301</v>
+        <v>10.864809</v>
       </c>
       <c r="I11">
-        <v>0.3352107056439999</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J11">
-        <v>0.3352107056439999</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>142.8499962530148</v>
+        <v>0.962193521045</v>
       </c>
       <c r="R11">
-        <v>142.8499962530148</v>
+        <v>8.659741689405001</v>
       </c>
       <c r="S11">
-        <v>0.1108456882492815</v>
+        <v>0.0006110952717652369</v>
       </c>
       <c r="T11">
-        <v>0.1108456882492815</v>
+        <v>0.000611095271765237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H12">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I12">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J12">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>11.5744966262056</v>
+        <v>344.1869003861356</v>
       </c>
       <c r="R12">
-        <v>11.5744966262056</v>
+        <v>3097.68210347522</v>
       </c>
       <c r="S12">
-        <v>0.008981330614796362</v>
+        <v>0.2185953062758809</v>
       </c>
       <c r="T12">
-        <v>0.008981330614796362</v>
+        <v>0.2185953062758809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H13">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I13">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J13">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>11.4566231417555</v>
+        <v>143.4144903021227</v>
       </c>
       <c r="R13">
-        <v>11.4566231417555</v>
+        <v>1290.730412719104</v>
       </c>
       <c r="S13">
-        <v>0.00888986566657844</v>
+        <v>0.09108346191217996</v>
       </c>
       <c r="T13">
-        <v>0.00888986566657844</v>
+        <v>0.09108346191217997</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.1812010757006</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H14">
-        <v>41.1812010757006</v>
+        <v>156.207692</v>
       </c>
       <c r="I14">
-        <v>0.2661319098410265</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J14">
-        <v>0.2661319098410265</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>211.274732357757</v>
+        <v>11.93862412776578</v>
       </c>
       <c r="R14">
-        <v>211.274732357757</v>
+        <v>107.447617149892</v>
       </c>
       <c r="S14">
-        <v>0.1639404531477829</v>
+        <v>0.007582296696340818</v>
       </c>
       <c r="T14">
-        <v>0.1639404531477829</v>
+        <v>0.007582296696340818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.1812010757006</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H15">
-        <v>41.1812010757006</v>
+        <v>156.207692</v>
       </c>
       <c r="I15">
-        <v>0.2661319098410265</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J15">
-        <v>0.2661319098410265</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>113.4120768922369</v>
+        <v>11.187907316424</v>
       </c>
       <c r="R15">
-        <v>113.4120768922369</v>
+        <v>100.691165847816</v>
       </c>
       <c r="S15">
-        <v>0.08800308049455147</v>
+        <v>0.007105511638229644</v>
       </c>
       <c r="T15">
-        <v>0.08800308049455147</v>
+        <v>0.007105511638229644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.1812010757006</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H16">
-        <v>41.1812010757006</v>
+        <v>156.207692</v>
       </c>
       <c r="I16">
-        <v>0.2661319098410265</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J16">
-        <v>0.2661319098410265</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>9.189273614226382</v>
+        <v>13.83383998557111</v>
       </c>
       <c r="R16">
-        <v>9.189273614226382</v>
+        <v>124.50455987014</v>
       </c>
       <c r="S16">
-        <v>0.00713049621979524</v>
+        <v>0.008785960433778488</v>
       </c>
       <c r="T16">
-        <v>0.00713049621979524</v>
+        <v>0.008785960433778489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H17">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I17">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J17">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.220869978492051</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N17">
-        <v>0.220869978492051</v>
+        <v>19.830535</v>
       </c>
       <c r="O17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P17">
-        <v>0.02652023195231612</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q17">
-        <v>9.09569099586682</v>
+        <v>276.6616658267528</v>
       </c>
       <c r="R17">
-        <v>9.09569099586682</v>
+        <v>2489.954992440775</v>
       </c>
       <c r="S17">
-        <v>0.007057879978896904</v>
+        <v>0.1757095970484255</v>
       </c>
       <c r="T17">
-        <v>0.007057879978896904</v>
+        <v>0.1757095970484255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.31058921237058</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H18">
-        <v>1.31058921237058</v>
+        <v>125.561665</v>
       </c>
       <c r="I18">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J18">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.13036839234934</v>
+        <v>2.754304</v>
       </c>
       <c r="N18">
-        <v>5.13036839234934</v>
+        <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P18">
-        <v>0.6160120116588518</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q18">
-        <v>6.723805470500041</v>
+        <v>115.2783320520533</v>
       </c>
       <c r="R18">
-        <v>6.723805470500041</v>
+        <v>1037.50498846848</v>
       </c>
       <c r="S18">
-        <v>0.005217394921815632</v>
+        <v>0.0732140074872715</v>
       </c>
       <c r="T18">
-        <v>0.005217394921815632</v>
+        <v>0.07321400748727151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.31058921237058</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H19">
-        <v>1.31058921237058</v>
+        <v>125.561665</v>
       </c>
       <c r="I19">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J19">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.75397691008961</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N19">
-        <v>2.75397691008961</v>
+        <v>0.687851</v>
       </c>
       <c r="O19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P19">
-        <v>0.3306746663604526</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q19">
-        <v>3.609332429481106</v>
+        <v>9.596412981323891</v>
       </c>
       <c r="R19">
-        <v>3.609332429481106</v>
+        <v>86.367716831915</v>
       </c>
       <c r="S19">
-        <v>0.002800692668956519</v>
+        <v>0.006094743386366355</v>
       </c>
       <c r="T19">
-        <v>0.002800692668956519</v>
+        <v>0.006094743386366355</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.31058921237058</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H20">
-        <v>1.31058921237058</v>
+        <v>125.561665</v>
       </c>
       <c r="I20">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J20">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.22314243815605</v>
+        <v>0.214866</v>
       </c>
       <c r="N20">
-        <v>0.22314243815605</v>
+        <v>0.644598</v>
       </c>
       <c r="O20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P20">
-        <v>0.02679309002837966</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q20">
-        <v>0.2924480722693885</v>
+        <v>8.992977570630002</v>
       </c>
       <c r="R20">
-        <v>0.2924480722693885</v>
+        <v>80.93679813567</v>
       </c>
       <c r="S20">
-        <v>0.000226927607267556</v>
+        <v>0.005711497689710388</v>
       </c>
       <c r="T20">
-        <v>0.000226927607267556</v>
+        <v>0.005711497689710387</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.31058921237058</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H21">
-        <v>1.31058921237058</v>
+        <v>125.561665</v>
       </c>
       <c r="I21">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J21">
-        <v>0.008469631797869928</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.220869978492051</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N21">
-        <v>0.220869978492051</v>
+        <v>0.797045</v>
       </c>
       <c r="O21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P21">
-        <v>0.02652023195231612</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q21">
-        <v>0.2894698111482041</v>
+        <v>11.11981080888056</v>
       </c>
       <c r="R21">
-        <v>0.2894698111482041</v>
+        <v>100.078297279925</v>
       </c>
       <c r="S21">
-        <v>0.0002246165998302227</v>
+        <v>0.007062263109868811</v>
       </c>
       <c r="T21">
-        <v>0.0002246165998302227</v>
+        <v>0.007062263109868811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.376274666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.128824</v>
+      </c>
+      <c r="I22">
+        <v>0.008805764765070032</v>
+      </c>
+      <c r="J22">
+        <v>0.008805764765070031</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>9.097420982315555</v>
+      </c>
+      <c r="R22">
+        <v>81.87678884084001</v>
+      </c>
+      <c r="S22">
+        <v>0.005777830369833566</v>
+      </c>
+      <c r="T22">
+        <v>0.005777830369833565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.376274666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.128824</v>
+      </c>
+      <c r="I23">
+        <v>0.008805764765070032</v>
+      </c>
+      <c r="J23">
+        <v>0.008805764765070031</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>3.790678819498666</v>
+      </c>
+      <c r="R23">
+        <v>34.116109375488</v>
+      </c>
+      <c r="S23">
+        <v>0.002407484412138261</v>
+      </c>
+      <c r="T23">
+        <v>0.002407484412138261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.376274666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.128824</v>
+      </c>
+      <c r="I24">
+        <v>0.008805764765070032</v>
+      </c>
+      <c r="J24">
+        <v>0.008805764765070031</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>0.3155573019137777</v>
+      </c>
+      <c r="R24">
+        <v>2.840015717224</v>
+      </c>
+      <c r="S24">
+        <v>0.0002004124648034149</v>
+      </c>
+      <c r="T24">
+        <v>0.0002004124648034149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.376274666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.128824</v>
+      </c>
+      <c r="I25">
+        <v>0.008805764765070032</v>
+      </c>
+      <c r="J25">
+        <v>0.008805764765070031</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>0.295714632528</v>
+      </c>
+      <c r="R25">
+        <v>2.661431692752</v>
+      </c>
+      <c r="S25">
+        <v>0.0001878102583079063</v>
+      </c>
+      <c r="T25">
+        <v>0.0001878102583079063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.376274666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.128824</v>
+      </c>
+      <c r="I26">
+        <v>0.008805764765070032</v>
+      </c>
+      <c r="J26">
+        <v>0.008805764765070031</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>0.3656509472311111</v>
+      </c>
+      <c r="R26">
+        <v>3.29085852508</v>
+      </c>
+      <c r="S26">
+        <v>0.0002322272599868836</v>
+      </c>
+      <c r="T26">
+        <v>0.0002322272599868836</v>
       </c>
     </row>
   </sheetData>
